--- a/trip_metadata.xlsx
+++ b/trip_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notandi\Documents\R\gpx-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CE2B92-7CD6-4184-B9D0-5FD2FEBAD858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A5D3CD-60A5-4CE2-9414-EDE8CD77549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21180" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -377,6 +377,18 @@
   </si>
   <si>
     <t>Hæfur háseti 3 - sigling 2</t>
+  </si>
+  <si>
+    <t>2022-06-25 Hæfur háseti 3 - sigling 3.gpx</t>
+  </si>
+  <si>
+    <t>haefur.haseti.3.3</t>
+  </si>
+  <si>
+    <t>Hæfur Háseti 3 - sigling 3</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Bergur|Einar|Kjartan|Steini</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,6 +1845,26 @@
         <v>116</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44737</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trip_metadata.xlsx
+++ b/trip_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notandi\Documents\R\gpx-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A5D3CD-60A5-4CE2-9414-EDE8CD77549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57198450-9E0F-4F5D-AEBA-D76186D80D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21180" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8352" yWindow="384" windowWidth="13212" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trip_metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -389,6 +389,111 @@
   </si>
   <si>
     <t>Þorsteinn|Bergur|Einar|Kjartan|Steini</t>
+  </si>
+  <si>
+    <t>rs.sigling.1</t>
+  </si>
+  <si>
+    <t>RS sigling 1</t>
+  </si>
+  <si>
+    <t>2022-07-03 RS sailing 1.gpx</t>
+  </si>
+  <si>
+    <t>RS Zest</t>
+  </si>
+  <si>
+    <t>fimmtudagssigling.4.2022</t>
+  </si>
+  <si>
+    <t>Fimmtudagssigling 4</t>
+  </si>
+  <si>
+    <t>2022-07-14 Fimmtudagssigling 4.gpx</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Corinna|Heiðrún</t>
+  </si>
+  <si>
+    <t>rodrarhopur.sigling.1</t>
+  </si>
+  <si>
+    <t>Róðrarhópur</t>
+  </si>
+  <si>
+    <t>2022-07-21 Róðrarhópur.gpx</t>
+  </si>
+  <si>
+    <t>Sexæringur</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Gísli</t>
+  </si>
+  <si>
+    <t>fimmtudagssigling.5.2022</t>
+  </si>
+  <si>
+    <t>Fimmtudagssigling 5</t>
+  </si>
+  <si>
+    <t>2022-07-21 Fimmtudagssigling 5.gpx</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Corinna|Helga</t>
+  </si>
+  <si>
+    <t>kaenumorgun.1.2022</t>
+  </si>
+  <si>
+    <t>Kænumorgun 1</t>
+  </si>
+  <si>
+    <t>2022-07-23 Kænumorgunn.gpx</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Corinna</t>
+  </si>
+  <si>
+    <t>2022-07-30 Kænumorgun.gpx</t>
+  </si>
+  <si>
+    <t>kaenumorgun.2.3033</t>
+  </si>
+  <si>
+    <t>Kænumorgun 2</t>
+  </si>
+  <si>
+    <t>fimmtudagssigling.6.2022</t>
+  </si>
+  <si>
+    <t>Fimmtudagssigling 6</t>
+  </si>
+  <si>
+    <t>2022-08-04 Fimmtudagssigling 4.gpx</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Árni|Corinna|Helga</t>
+  </si>
+  <si>
+    <t>gledisigling.1</t>
+  </si>
+  <si>
+    <t>Gleðisigling 1</t>
+  </si>
+  <si>
+    <t>2022-08-05 Gleðisigling 1.gpx</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Helga</t>
+  </si>
+  <si>
+    <t>gledisigling.2</t>
+  </si>
+  <si>
+    <t>Gleðisigling 2</t>
+  </si>
+  <si>
+    <t>2022-08-05 Gleðisigling 2.gpx</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,6 +1970,186 @@
         <v>122</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44745</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44756</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44759</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44763</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44765</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44772</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44777</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44778</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44778</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trip_metadata.xlsx
+++ b/trip_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Notandi\Documents\R\gpx-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12e589219cba7ee6/Documents/R/siglingarGPX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57198450-9E0F-4F5D-AEBA-D76186D80D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{57198450-9E0F-4F5D-AEBA-D76186D80D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E679A154-2826-4AF7-B71C-D2EB0E35F2B3}"/>
   <bookViews>
-    <workbookView xWindow="8352" yWindow="384" windowWidth="13212" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trip_metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -494,6 +494,51 @@
   </si>
   <si>
     <t>2022-08-05 Gleðisigling 2.gpx</t>
+  </si>
+  <si>
+    <t>2022-08-27 Kænumorgun.gpx</t>
+  </si>
+  <si>
+    <t>2022-09-08 Fimmtudagssigling 7.gpx</t>
+  </si>
+  <si>
+    <t>2022-09-10 Lokamót kjölbáta.gpx</t>
+  </si>
+  <si>
+    <t>2022-09-18 kænumorgun.gpx</t>
+  </si>
+  <si>
+    <t>Kænumorgun 3</t>
+  </si>
+  <si>
+    <t>Kænumorgun 4</t>
+  </si>
+  <si>
+    <t>Lokamót Kjölbáta</t>
+  </si>
+  <si>
+    <t>Fimmtudagssigling 7</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Árni|Corinna|Reynir</t>
+  </si>
+  <si>
+    <t>Reynir|Corinna|Óli Grétar</t>
+  </si>
+  <si>
+    <t>2022-09-22 Fimmtudagssigling 8.gpx</t>
+  </si>
+  <si>
+    <t>Fimmtudagssigling 8</t>
+  </si>
+  <si>
+    <t>2022-10-18 Lokasigling.gpx</t>
+  </si>
+  <si>
+    <t>Lokasigling 2022</t>
+  </si>
+  <si>
+    <t>Þorsteinn|Árni|Valur|Torfi</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,6 +2195,108 @@
         <v>154</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44800</v>
+      </c>
+      <c r="E41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44812</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44814</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44822</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44826</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44852</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
